--- a/cleaned_fossilgaspower_data.xlsx
+++ b/cleaned_fossilgaspower_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,7 +532,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61967623556</t>
+          <t>/v1/utilizations/67191278677</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61967623556</v>
+        <v>67191278677</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -564,29 +564,29 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3793250</v>
+        <v>5499000</v>
       </c>
       <c r="K2" t="n">
-        <v>3793250</v>
+        <v>5499000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1502127</v>
+        <v>2177604</v>
       </c>
       <c r="N2" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45263</v>
+        <v>45610</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45263.04166666666</v>
+        <v>45610.04166666666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -596,7 +596,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61968354800</t>
+          <t>/v1/utilizations/67191616058</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61968354800</v>
+        <v>67191616058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -628,29 +628,29 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3705000</v>
+        <v>5099750</v>
       </c>
       <c r="K3" t="n">
-        <v>3705000</v>
+        <v>5099750</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1467180</v>
+        <v>2019501</v>
       </c>
       <c r="N3" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45263.04166666666</v>
+        <v>45610.04166666666</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>45263.08333333334</v>
+        <v>45610.08333333334</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -660,7 +660,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61969089644</t>
+          <t>/v1/utilizations/67191909922</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61969089644</v>
+        <v>67191909922</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -692,29 +692,29 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3864750</v>
+        <v>4782500</v>
       </c>
       <c r="K4" t="n">
-        <v>3864750</v>
+        <v>4782500</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1530441</v>
+        <v>1893870</v>
       </c>
       <c r="N4" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45263.08333333334</v>
+        <v>45610.08333333334</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>45263.125</v>
+        <v>45610.125</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -724,7 +724,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61969828314</t>
+          <t>/v1/utilizations/67192305923</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61969828314</v>
+        <v>67192305923</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -756,29 +756,29 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3643500</v>
+        <v>4764750</v>
       </c>
       <c r="K5" t="n">
-        <v>3643500</v>
+        <v>4764750</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1442826</v>
+        <v>1886841</v>
       </c>
       <c r="N5" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45263.125</v>
+        <v>45610.125</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45263.16666666666</v>
+        <v>45610.16666666666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -788,7 +788,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61970570584</t>
+          <t>/v1/utilizations/67192648858</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61970570584</v>
+        <v>67192648858</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -820,29 +820,29 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3670000</v>
+        <v>5113250</v>
       </c>
       <c r="K6" t="n">
-        <v>3670000</v>
+        <v>5113250</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1453320</v>
+        <v>2024847</v>
       </c>
       <c r="N6" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45263.16666666666</v>
+        <v>45610.16666666666</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>45263.20833333334</v>
+        <v>45610.20833333334</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -852,7 +852,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61971316454</t>
+          <t>/v1/utilizations/67192947264</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61971316454</v>
+        <v>67192947264</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -884,29 +884,29 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3527500</v>
+        <v>6449500</v>
       </c>
       <c r="K7" t="n">
-        <v>3527500</v>
+        <v>6449500</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1396890</v>
+        <v>2554002</v>
       </c>
       <c r="N7" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45263.20833333334</v>
+        <v>45610.20833333334</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>45263.25</v>
+        <v>45610.25</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -916,7 +916,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61972065924</t>
+          <t>/v1/utilizations/67195208392</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61972065924</v>
+        <v>67195208392</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -948,29 +948,29 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3375750</v>
+        <v>7174500</v>
       </c>
       <c r="K8" t="n">
-        <v>3375750</v>
+        <v>7174500</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1336797</v>
+        <v>2841102</v>
       </c>
       <c r="N8" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45263.25</v>
+        <v>45610.25</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45263.29166666666</v>
+        <v>45610.29166666666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -980,7 +980,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61974314738</t>
+          <t>/v1/utilizations/67195208393</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61974314738</v>
+        <v>67195208393</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1012,29 +1012,29 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3801750</v>
+        <v>7621250</v>
       </c>
       <c r="K9" t="n">
-        <v>3801750</v>
+        <v>7621250</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1505493</v>
+        <v>3018015</v>
       </c>
       <c r="N9" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45263.29166666666</v>
+        <v>45610.29166666666</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>45263.33333333334</v>
+        <v>45610.33333333334</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1044,7 +1044,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61976022902</t>
+          <t>/v1/utilizations/67196689398</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61976022902</v>
+        <v>67196689398</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1076,29 +1076,29 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>3943250</v>
+        <v>7663000</v>
       </c>
       <c r="K10" t="n">
-        <v>3943250</v>
+        <v>7663000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1561527</v>
+        <v>3034548</v>
       </c>
       <c r="N10" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45263.33333333334</v>
+        <v>45610.33333333334</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>45263.375</v>
+        <v>45610.375</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1108,7 +1108,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61976783172</t>
+          <t>/v1/utilizations/67197098413</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61976783172</v>
+        <v>67197098413</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1140,29 +1140,29 @@
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3823500</v>
+        <v>7660500</v>
       </c>
       <c r="K11" t="n">
-        <v>3823500</v>
+        <v>7660500</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1514106</v>
+        <v>3033558</v>
       </c>
       <c r="N11" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45263.375</v>
+        <v>45610.375</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>45263.41666666666</v>
+        <v>45610.41666666666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1172,7 +1172,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61977547042</t>
+          <t>/v1/utilizations/67197452240</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61977547042</v>
+        <v>67197452240</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1204,29 +1204,29 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3989750</v>
+        <v>7632000</v>
       </c>
       <c r="K12" t="n">
-        <v>3989750</v>
+        <v>7632000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1579941</v>
+        <v>3022272</v>
       </c>
       <c r="N12" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45263.41666666666</v>
+        <v>45610.41666666666</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>45263.45833333334</v>
+        <v>45610.45833333334</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1236,7 +1236,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61978314512</t>
+          <t>/v1/utilizations/67197739922</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61978314512</v>
+        <v>67197739922</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1268,29 +1268,29 @@
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>3892750</v>
+        <v>7634500</v>
       </c>
       <c r="K13" t="n">
-        <v>3892750</v>
+        <v>7634500</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1541529</v>
+        <v>3023262</v>
       </c>
       <c r="N13" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45263.45833333334</v>
+        <v>45610.45833333334</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>45263.5</v>
+        <v>45610.5</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1300,7 +1300,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61979085582</t>
+          <t>/v1/utilizations/67198155411</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61979085582</v>
+        <v>67198155411</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1332,29 +1332,29 @@
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4052500</v>
+        <v>7614750</v>
       </c>
       <c r="K14" t="n">
-        <v>4052500</v>
+        <v>7614750</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1604790</v>
+        <v>3015441</v>
       </c>
       <c r="N14" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45263.5</v>
+        <v>45610.5</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>45263.54166666666</v>
+        <v>45610.54166666666</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1364,7 +1364,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61979860252</t>
+          <t>/v1/utilizations/67198498956</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61979860252</v>
+        <v>67198498956</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1396,29 +1396,29 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4391500</v>
+        <v>7724000</v>
       </c>
       <c r="K15" t="n">
-        <v>4391500</v>
+        <v>7724000</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1739034</v>
+        <v>3058704</v>
       </c>
       <c r="N15" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45263.54166666666</v>
+        <v>45610.54166666666</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>45263.58333333334</v>
+        <v>45610.58333333334</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1428,7 +1428,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61980638522</t>
+          <t>/v1/utilizations/67198860778</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61980638522</v>
+        <v>67198860778</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1460,29 +1460,29 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>4713250</v>
+        <v>7832750</v>
       </c>
       <c r="K16" t="n">
-        <v>4713250</v>
+        <v>7832750</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1866447</v>
+        <v>3101769</v>
       </c>
       <c r="N16" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45263.58333333334</v>
+        <v>45610.58333333334</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>45263.625</v>
+        <v>45610.625</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1492,7 +1492,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61981420392</t>
+          <t>/v1/utilizations/67199116252</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>61981420392</v>
+        <v>67199116252</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1524,29 +1524,29 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4976500</v>
+        <v>7751750</v>
       </c>
       <c r="K17" t="n">
-        <v>4976500</v>
+        <v>7751750</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1970694</v>
+        <v>3069693</v>
       </c>
       <c r="N17" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45263.625</v>
+        <v>45610.625</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>45263.66666666666</v>
+        <v>45610.66666666666</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -1556,7 +1556,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61982205862</t>
+          <t>/v1/utilizations/67199482132</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>61982205862</v>
+        <v>67199482132</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1588,29 +1588,29 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>5117000</v>
+        <v>8581000</v>
       </c>
       <c r="K18" t="n">
-        <v>5117000</v>
+        <v>8581000</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2026332</v>
+        <v>3398076</v>
       </c>
       <c r="N18" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45263.66666666666</v>
+        <v>45610.66666666666</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>45263.70833333334</v>
+        <v>45610.70833333334</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -1620,7 +1620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61982925560</t>
+          <t>/v1/utilizations/67199910378</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61982925560</v>
+        <v>67199910378</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1652,29 +1652,29 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5224750</v>
+        <v>9688750</v>
       </c>
       <c r="K19" t="n">
-        <v>5224750</v>
+        <v>9688750</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2069001</v>
+        <v>3836745</v>
       </c>
       <c r="N19" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45263.70833333334</v>
+        <v>45610.70833333334</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>45263.75</v>
+        <v>45610.75</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R19" t="n">
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61983718230</t>
+          <t>/v1/utilizations/67200280644</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>61983718230</v>
+        <v>67200280644</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1716,29 +1716,29 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>5236500</v>
+        <v>9880750</v>
       </c>
       <c r="K20" t="n">
-        <v>5236500</v>
+        <v>9880750</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2073654</v>
+        <v>3912777</v>
       </c>
       <c r="N20" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45263.75</v>
+        <v>45610.75</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>45263.79166666666</v>
+        <v>45610.79166666666</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R20" t="n">
@@ -1748,7 +1748,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61984375036</t>
+          <t>/v1/utilizations/67200652730</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>61984375036</v>
+        <v>67200652730</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1780,29 +1780,29 @@
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>4960750</v>
+        <v>9851750</v>
       </c>
       <c r="K21" t="n">
-        <v>4960750</v>
+        <v>9851750</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1964457</v>
+        <v>3901293</v>
       </c>
       <c r="N21" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45263.79166666666</v>
+        <v>45610.79166666666</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>45263.83333333334</v>
+        <v>45610.83333333334</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R21" t="n">
@@ -1812,7 +1812,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61985174906</t>
+          <t>/v1/utilizations/67201009238</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>61985174906</v>
+        <v>67201009238</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1844,29 +1844,29 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>4453000</v>
+        <v>9684000</v>
       </c>
       <c r="K22" t="n">
-        <v>4453000</v>
+        <v>9684000</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1763388</v>
+        <v>3834864</v>
       </c>
       <c r="N22" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45263.83333333334</v>
+        <v>45610.83333333334</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>45263.875</v>
+        <v>45610.875</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -1876,7 +1876,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61985978376</t>
+          <t>/v1/utilizations/67201384962</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>61985978376</v>
+        <v>67201384962</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1908,29 +1908,29 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3583250</v>
+        <v>9805250</v>
       </c>
       <c r="K23" t="n">
-        <v>3583250</v>
+        <v>9805250</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1418967</v>
+        <v>3882879</v>
       </c>
       <c r="N23" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45263.875</v>
+        <v>45610.875</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>45263.91666666666</v>
+        <v>45610.91666666666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R23" t="n">
@@ -1940,7 +1940,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61986644902</t>
+          <t>/v1/utilizations/67201745654</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>61986644902</v>
+        <v>67201745654</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1972,29 +1972,29 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2711000</v>
+        <v>8872250</v>
       </c>
       <c r="K24" t="n">
-        <v>2711000</v>
+        <v>8872250</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1073556</v>
+        <v>3513411</v>
       </c>
       <c r="N24" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45263.91666666666</v>
+        <v>45610.91666666666</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>45263.95833333334</v>
+        <v>45610.95833333334</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R24" t="n">
@@ -2004,7 +2004,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61987455572</t>
+          <t>/v1/utilizations/67202125020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>61987455572</v>
+        <v>67202125020</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2036,29 +2036,29 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2660500</v>
+        <v>7425750</v>
       </c>
       <c r="K25" t="n">
-        <v>2660500</v>
+        <v>7425750</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1053558</v>
+        <v>2940597</v>
       </c>
       <c r="N25" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45263.95833333334</v>
+        <v>45610.95833333334</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>45264</v>
+        <v>45611</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-16T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R25" t="n">
@@ -2068,7 +2068,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61988260122</t>
+          <t>/v1/utilizations/67202401479</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61988260122</v>
+        <v>67202401479</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2100,29 +2100,29 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2262750</v>
+        <v>7195750</v>
       </c>
       <c r="K26" t="n">
-        <v>2262750</v>
+        <v>7195750</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>896049</v>
+        <v>2849517</v>
       </c>
       <c r="N26" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45264</v>
+        <v>45611</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>45264.04166666666</v>
+        <v>45611.04166666666</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R26" t="n">
@@ -2132,7 +2132,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61988991366</t>
+          <t>/v1/utilizations/67202685352</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>61988991366</v>
+        <v>67202685352</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2164,29 +2164,29 @@
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2219750</v>
+        <v>7110500</v>
       </c>
       <c r="K27" t="n">
-        <v>2219750</v>
+        <v>7110500</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>879021</v>
+        <v>2815758</v>
       </c>
       <c r="N27" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45264.04166666666</v>
+        <v>45611.04166666666</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>45264.08333333334</v>
+        <v>45611.08333333334</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R27" t="n">
@@ -2196,7 +2196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61989726210</t>
+          <t>/v1/utilizations/67203061912</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61989726210</v>
+        <v>67203061912</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2228,29 +2228,29 @@
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2133500</v>
+        <v>6879250</v>
       </c>
       <c r="K28" t="n">
-        <v>2133500</v>
+        <v>6879250</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>844866</v>
+        <v>2724183</v>
       </c>
       <c r="N28" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45264.08333333334</v>
+        <v>45611.08333333334</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>45264.125</v>
+        <v>45611.125</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R28" t="n">
@@ -2260,7 +2260,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61990464880</t>
+          <t>/v1/utilizations/67203403210</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61990464880</v>
+        <v>67203403210</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2292,29 +2292,29 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2043500</v>
+        <v>6983000</v>
       </c>
       <c r="K29" t="n">
-        <v>2043500</v>
+        <v>6983000</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>809226</v>
+        <v>2765268</v>
       </c>
       <c r="N29" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45264.125</v>
+        <v>45611.125</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>45264.16666666666</v>
+        <v>45611.16666666666</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R29" t="n">
@@ -2324,7 +2324,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61991207150</t>
+          <t>/v1/utilizations/67203763348</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>61991207150</v>
+        <v>67203763348</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2356,29 +2356,29 @@
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2358000</v>
+        <v>7414250</v>
       </c>
       <c r="K30" t="n">
-        <v>2358000</v>
+        <v>7414250</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>933768</v>
+        <v>2936043</v>
       </c>
       <c r="N30" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45264.16666666666</v>
+        <v>45611.16666666666</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>45264.20833333334</v>
+        <v>45611.20833333334</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R30" t="n">
@@ -2388,7 +2388,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61991953020</t>
+          <t>/v1/utilizations/67204090876</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>61991953020</v>
+        <v>67204090876</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2420,29 +2420,29 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3963250</v>
+        <v>7710500</v>
       </c>
       <c r="K31" t="n">
-        <v>3963250</v>
+        <v>7710500</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1569447</v>
+        <v>3053358</v>
       </c>
       <c r="N31" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45264.20833333334</v>
+        <v>45611.20833333334</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>45264.25</v>
+        <v>45611.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R31" t="n">
@@ -2452,7 +2452,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61992702490</t>
+          <t>/v1/utilizations/67204382233</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61992702490</v>
+        <v>67204382233</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2484,29 +2484,29 @@
         <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>6523750</v>
+        <v>8050500</v>
       </c>
       <c r="K32" t="n">
-        <v>6523750</v>
+        <v>8050500</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2583405</v>
+        <v>3187998</v>
       </c>
       <c r="N32" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45264.25</v>
+        <v>45611.25</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>45264.29166666666</v>
+        <v>45611.29166666666</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R32" t="n">
@@ -2516,7 +2516,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61994974110</t>
+          <t>/v1/utilizations/67206478675</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61994974110</v>
+        <v>67206478675</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2548,29 +2548,29 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>7701250</v>
+        <v>8173500</v>
       </c>
       <c r="K33" t="n">
-        <v>7701250</v>
+        <v>8173500</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3049695</v>
+        <v>3236706</v>
       </c>
       <c r="N33" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45264.29166666666</v>
+        <v>45611.29166666666</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>45264.33333333334</v>
+        <v>45611.33333333334</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R33" t="n">
@@ -2580,7 +2580,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61996589838</t>
+          <t>/v1/utilizations/67207791178</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>61996589838</v>
+        <v>67207791178</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2612,29 +2612,29 @@
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>8010750</v>
+        <v>8105250</v>
       </c>
       <c r="K34" t="n">
-        <v>8010750</v>
+        <v>8105250</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>3172257</v>
+        <v>3209679</v>
       </c>
       <c r="N34" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45264.33333333334</v>
+        <v>45611.33333333334</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>45264.375</v>
+        <v>45611.375</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R34" t="n">
@@ -2644,7 +2644,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61997214244</t>
+          <t>/v1/utilizations/67208134618</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>61997214244</v>
+        <v>67208134618</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2676,29 +2676,29 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>7587500</v>
+        <v>7991000</v>
       </c>
       <c r="K35" t="n">
-        <v>7587500</v>
+        <v>7991000</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3004650</v>
+        <v>3164436</v>
       </c>
       <c r="N35" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45264.375</v>
+        <v>45611.375</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>45264.41666666666</v>
+        <v>45611.41666666666</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -2708,7 +2708,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61997910002</t>
+          <t>/v1/utilizations/67208488561</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>61997910002</v>
+        <v>67208488561</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2740,29 +2740,29 @@
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>7132000</v>
+        <v>8046500</v>
       </c>
       <c r="K36" t="n">
-        <v>7132000</v>
+        <v>8046500</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2824272</v>
+        <v>3186414</v>
       </c>
       <c r="N36" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45264.41666666666</v>
+        <v>45611.41666666666</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>45264.45833333334</v>
+        <v>45611.45833333334</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R36" t="n">
@@ -2772,7 +2772,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61998677472</t>
+          <t>/v1/utilizations/67208887168</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>61998677472</v>
+        <v>67208887168</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2804,29 +2804,29 @@
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>7088750</v>
+        <v>8073500</v>
       </c>
       <c r="K37" t="n">
-        <v>7088750</v>
+        <v>8073500</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2807145</v>
+        <v>3197106</v>
       </c>
       <c r="N37" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45264.45833333334</v>
+        <v>45611.45833333334</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>45264.5</v>
+        <v>45611.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R37" t="n">
@@ -2836,7 +2836,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61999448542</t>
+          <t>/v1/utilizations/67209296842</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>61999448542</v>
+        <v>67209296842</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2868,29 +2868,29 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>7122750</v>
+        <v>7980000</v>
       </c>
       <c r="K38" t="n">
-        <v>7122750</v>
+        <v>7980000</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2820609</v>
+        <v>3160080</v>
       </c>
       <c r="N38" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45264.5</v>
+        <v>45611.5</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>45264.54166666666</v>
+        <v>45611.54166666666</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R38" t="n">
@@ -2900,7 +2900,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62000223212</t>
+          <t>/v1/utilizations/67209585213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>62000223212</v>
+        <v>67209585213</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2932,29 +2932,29 @@
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>7117750</v>
+        <v>8023250</v>
       </c>
       <c r="K39" t="n">
-        <v>7117750</v>
+        <v>8023250</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2818629</v>
+        <v>3177207</v>
       </c>
       <c r="N39" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45264.54166666666</v>
+        <v>45611.54166666666</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45264.58333333334</v>
+        <v>45611.58333333334</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R39" t="n">
@@ -2964,7 +2964,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62001001482</t>
+          <t>/v1/utilizations/67209951979</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>62001001482</v>
+        <v>67209951979</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2996,29 +2996,29 @@
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>7104500</v>
+        <v>8056750</v>
       </c>
       <c r="K40" t="n">
-        <v>7104500</v>
+        <v>8056750</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2813382</v>
+        <v>3190473</v>
       </c>
       <c r="N40" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45264.58333333334</v>
+        <v>45611.58333333334</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>45264.625</v>
+        <v>45611.625</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R40" t="n">
@@ -3028,7 +3028,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62001783352</t>
+          <t>/v1/utilizations/67210370763</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>62001783352</v>
+        <v>67210370763</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3060,29 +3060,29 @@
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>7092000</v>
+        <v>7929750</v>
       </c>
       <c r="K41" t="n">
-        <v>7092000</v>
+        <v>7929750</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2808432</v>
+        <v>3140181</v>
       </c>
       <c r="N41" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45264.625</v>
+        <v>45611.625</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>45264.66666666666</v>
+        <v>45611.66666666666</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R41" t="n">
@@ -3092,7 +3092,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62002568822</t>
+          <t>/v1/utilizations/67210735823</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>62002568822</v>
+        <v>67210735823</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3124,29 +3124,29 @@
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>7034500</v>
+        <v>8060500</v>
       </c>
       <c r="K42" t="n">
-        <v>7034500</v>
+        <v>8060500</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2785662</v>
+        <v>3191958</v>
       </c>
       <c r="N42" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45264.66666666666</v>
+        <v>45611.66666666666</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>45264.70833333334</v>
+        <v>45611.70833333334</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R42" t="n">
@@ -3156,7 +3156,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62003219148</t>
+          <t>/v1/utilizations/67211103948</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>62003219148</v>
+        <v>67211103948</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3188,29 +3188,29 @@
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>6865500</v>
+        <v>7919500</v>
       </c>
       <c r="K43" t="n">
-        <v>6865500</v>
+        <v>7919500</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2718738</v>
+        <v>3136122</v>
       </c>
       <c r="N43" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45264.70833333334</v>
+        <v>45611.70833333334</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>45264.75</v>
+        <v>45611.75</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R43" t="n">
@@ -3220,7 +3220,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62003872714</t>
+          <t>/v1/utilizations/67211473777</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>62003872714</v>
+        <v>67211473777</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3252,29 +3252,29 @@
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>6832500</v>
+        <v>7599750</v>
       </c>
       <c r="K44" t="n">
-        <v>6832500</v>
+        <v>7599750</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2705670</v>
+        <v>3009501</v>
       </c>
       <c r="N44" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45264.75</v>
+        <v>45611.75</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>45264.79166666666</v>
+        <v>45611.79166666666</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R44" t="n">
@@ -3284,7 +3284,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62004529520</t>
+          <t>/v1/utilizations/67211845310</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>62004529520</v>
+        <v>67211845310</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3316,29 +3316,29 @@
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>5708250</v>
+        <v>6597500</v>
       </c>
       <c r="K45" t="n">
-        <v>5708250</v>
+        <v>6597500</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2260467</v>
+        <v>2612610</v>
       </c>
       <c r="N45" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45264.79166666666</v>
+        <v>45611.79166666666</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>45264.83333333334</v>
+        <v>45611.83333333334</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R45" t="n">
@@ -3348,7 +3348,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62005189566</t>
+          <t>/v1/utilizations/67212167163</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>62005189566</v>
+        <v>67212167163</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3380,29 +3380,29 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>4452750</v>
+        <v>5062000</v>
       </c>
       <c r="K46" t="n">
-        <v>4452750</v>
+        <v>5062000</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1763289</v>
+        <v>2004552</v>
       </c>
       <c r="N46" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45264.83333333334</v>
+        <v>45611.83333333334</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>45264.875</v>
+        <v>45611.875</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R46" t="n">
@@ -3412,7 +3412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62005993036</t>
+          <t>/v1/utilizations/67212539197</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>62005993036</v>
+        <v>67212539197</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3444,29 +3444,29 @@
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>3436000</v>
+        <v>4132000</v>
       </c>
       <c r="K47" t="n">
-        <v>3436000</v>
+        <v>4132000</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1360656</v>
+        <v>1636272</v>
       </c>
       <c r="N47" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>45264.875</v>
+        <v>45611.875</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>45264.91666666666</v>
+        <v>45611.91666666666</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R47" t="n">
@@ -3476,7 +3476,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62006800106</t>
+          <t>/v1/utilizations/67212965002</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>62006800106</v>
+        <v>67212965002</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3508,29 +3508,29 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2651250</v>
+        <v>3066750</v>
       </c>
       <c r="K48" t="n">
-        <v>2651250</v>
+        <v>3066750</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1049895</v>
+        <v>1214433</v>
       </c>
       <c r="N48" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>45264.91666666666</v>
+        <v>45611.91666666666</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>45264.95833333334</v>
+        <v>45611.95833333334</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R48" t="n">
@@ -3540,7 +3540,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62007610776</t>
+          <t>/v1/utilizations/67213343351</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>62007610776</v>
+        <v>67213343351</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3572,29 +3572,29 @@
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2632500</v>
+        <v>2071750</v>
       </c>
       <c r="K49" t="n">
-        <v>2632500</v>
+        <v>2071750</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1042470</v>
+        <v>820413</v>
       </c>
       <c r="N49" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>45264.95833333334</v>
+        <v>45611.95833333334</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>45265</v>
+        <v>45612</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-17T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R49" t="n">
@@ -3604,7 +3604,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62008415326</t>
+          <t>/v1/utilizations/67213715364</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>62008415326</v>
+        <v>67213715364</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3636,29 +3636,29 @@
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2571500</v>
+        <v>1747750</v>
       </c>
       <c r="K50" t="n">
-        <v>2571500</v>
+        <v>1747750</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1018314</v>
+        <v>692109</v>
       </c>
       <c r="N50" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>45265</v>
+        <v>45612</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>45265.04166666666</v>
+        <v>45612.04166666666</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R50" t="n">
@@ -3668,7 +3668,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62009146570</t>
+          <t>/v1/utilizations/67214051739</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>62009146570</v>
+        <v>67214051739</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -3700,29 +3700,29 @@
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2489250</v>
+        <v>1720500</v>
       </c>
       <c r="K51" t="n">
-        <v>2489250</v>
+        <v>1720500</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>985743</v>
+        <v>681318</v>
       </c>
       <c r="N51" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>45265.04166666666</v>
+        <v>45612.04166666666</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>45265.08333333334</v>
+        <v>45612.08333333334</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R51" t="n">
@@ -3732,7 +3732,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62009881414</t>
+          <t>/v1/utilizations/67214325155</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>62009881414</v>
+        <v>67214325155</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -3764,29 +3764,29 @@
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2617750</v>
+        <v>1636750</v>
       </c>
       <c r="K52" t="n">
-        <v>2617750</v>
+        <v>1636750</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1036629</v>
+        <v>648153</v>
       </c>
       <c r="N52" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>45265.08333333334</v>
+        <v>45612.08333333334</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>45265.125</v>
+        <v>45612.125</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R52" t="n">
@@ -3796,7 +3796,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62010620084</t>
+          <t>/v1/utilizations/67214716839</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>62010620084</v>
+        <v>67214716839</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3828,29 +3828,29 @@
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2856250</v>
+        <v>1480500</v>
       </c>
       <c r="K53" t="n">
-        <v>2856250</v>
+        <v>1480500</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1131075</v>
+        <v>586278</v>
       </c>
       <c r="N53" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>45265.125</v>
+        <v>45612.125</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>45265.16666666666</v>
+        <v>45612.16666666666</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R53" t="n">
@@ -3860,7 +3860,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62011362354</t>
+          <t>/v1/utilizations/67215003977</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>62011362354</v>
+        <v>67215003977</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -3892,29 +3892,29 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3771250</v>
+        <v>1571250</v>
       </c>
       <c r="K54" t="n">
-        <v>3771250</v>
+        <v>1571250</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1493415</v>
+        <v>622215</v>
       </c>
       <c r="N54" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>45265.16666666666</v>
+        <v>45612.16666666666</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>45265.20833333334</v>
+        <v>45612.20833333334</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R54" t="n">
@@ -3924,7 +3924,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62012108224</t>
+          <t>/v1/utilizations/67215399265</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>62012108224</v>
+        <v>67215399265</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3956,29 +3956,29 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>4931000</v>
+        <v>1618250</v>
       </c>
       <c r="K55" t="n">
-        <v>4931000</v>
+        <v>1618250</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1952676</v>
+        <v>640827</v>
       </c>
       <c r="N55" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>45265.20833333334</v>
+        <v>45612.20833333334</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>45265.25</v>
+        <v>45612.25</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R55" t="n">
@@ -3988,7 +3988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62012857694</t>
+          <t>/v1/utilizations/67217553562</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>62012857694</v>
+        <v>67217553562</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4020,29 +4020,29 @@
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>6021250</v>
+        <v>1853500</v>
       </c>
       <c r="K56" t="n">
-        <v>6021250</v>
+        <v>1853500</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2384415</v>
+        <v>733986</v>
       </c>
       <c r="N56" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>45265.25</v>
+        <v>45612.25</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>45265.29166666666</v>
+        <v>45612.29166666666</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R56" t="n">
@@ -4052,7 +4052,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62015178609</t>
+          <t>/v1/utilizations/67217553563</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>62015178609</v>
+        <v>67217553563</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4084,29 +4084,29 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>6831250</v>
+        <v>2251750</v>
       </c>
       <c r="K57" t="n">
-        <v>6831250</v>
+        <v>2251750</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>2705175</v>
+        <v>891693</v>
       </c>
       <c r="N57" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>45265.29166666666</v>
+        <v>45612.29166666666</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>45265.33333333334</v>
+        <v>45612.33333333334</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R57" t="n">
@@ -4116,7 +4116,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62016629382</t>
+          <t>/v1/utilizations/67219079546</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>62016629382</v>
+        <v>67219079546</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4148,29 +4148,29 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>7209750</v>
+        <v>2523500</v>
       </c>
       <c r="K58" t="n">
-        <v>7209750</v>
+        <v>2523500</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>2855061</v>
+        <v>999306</v>
       </c>
       <c r="N58" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>45265.33333333334</v>
+        <v>45612.33333333334</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>45265.375</v>
+        <v>45612.375</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R58" t="n">
@@ -4180,7 +4180,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62017389652</t>
+          <t>/v1/utilizations/67219429724</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>62017389652</v>
+        <v>67219429724</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4212,29 +4212,29 @@
         <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>7268250</v>
+        <v>2646750</v>
       </c>
       <c r="K59" t="n">
-        <v>7268250</v>
+        <v>2646750</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2878227</v>
+        <v>1048113</v>
       </c>
       <c r="N59" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>45265.375</v>
+        <v>45612.375</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>45265.41666666666</v>
+        <v>45612.41666666666</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R59" t="n">
@@ -4244,7 +4244,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62018085410</t>
+          <t>/v1/utilizations/67219781606</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>62018085410</v>
+        <v>67219781606</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -4276,29 +4276,29 @@
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>7163000</v>
+        <v>2906500</v>
       </c>
       <c r="K60" t="n">
-        <v>7163000</v>
+        <v>2906500</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>2836548</v>
+        <v>1150974</v>
       </c>
       <c r="N60" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>45265.41666666666</v>
+        <v>45612.41666666666</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>45265.45833333334</v>
+        <v>45612.45833333334</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R60" t="n">
@@ -4308,7 +4308,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62018852880</t>
+          <t>/v1/utilizations/67220126488</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>62018852880</v>
+        <v>67220126488</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4340,29 +4340,29 @@
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>7127750</v>
+        <v>2775750</v>
       </c>
       <c r="K61" t="n">
-        <v>7127750</v>
+        <v>2775750</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2822589</v>
+        <v>1099197</v>
       </c>
       <c r="N61" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>45265.45833333334</v>
+        <v>45612.45833333334</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>45265.5</v>
+        <v>45612.5</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R61" t="n">
@@ -4372,7 +4372,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62019555478</t>
+          <t>/v1/utilizations/67220481778</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>62019555478</v>
+        <v>67220481778</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -4404,29 +4404,29 @@
         <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>7234750</v>
+        <v>2430500</v>
       </c>
       <c r="K62" t="n">
-        <v>7234750</v>
+        <v>2430500</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>2864961</v>
+        <v>962478</v>
       </c>
       <c r="N62" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>45265.5</v>
+        <v>45612.5</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>45265.54166666666</v>
+        <v>45612.54166666666</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R62" t="n">
@@ -4436,7 +4436,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62020330148</t>
+          <t>/v1/utilizations/67220838772</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>62020330148</v>
+        <v>67220838772</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4468,29 +4468,29 @@
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>7725000</v>
+        <v>2341250</v>
       </c>
       <c r="K63" t="n">
-        <v>7725000</v>
+        <v>2341250</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>3059100</v>
+        <v>927135</v>
       </c>
       <c r="N63" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>45265.54166666666</v>
+        <v>45612.54166666666</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>45265.58333333334</v>
+        <v>45612.58333333334</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R63" t="n">
@@ -4500,7 +4500,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62021108418</t>
+          <t>/v1/utilizations/67221141754</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>62021108418</v>
+        <v>67221141754</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4532,29 +4532,29 @@
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>8444500</v>
+        <v>2338250</v>
       </c>
       <c r="K64" t="n">
-        <v>8444500</v>
+        <v>2338250</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>3344022</v>
+        <v>925947</v>
       </c>
       <c r="N64" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>45265.58333333334</v>
+        <v>45612.58333333334</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>45265.625</v>
+        <v>45612.625</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R64" t="n">
@@ -4564,7 +4564,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62021890288</t>
+          <t>/v1/utilizations/67221560538</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>62021890288</v>
+        <v>67221560538</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4596,29 +4596,29 @@
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>8695750</v>
+        <v>2559250</v>
       </c>
       <c r="K65" t="n">
-        <v>8695750</v>
+        <v>2559250</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>3443517</v>
+        <v>1013463</v>
       </c>
       <c r="N65" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>45265.625</v>
+        <v>45612.625</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>45265.66666666666</v>
+        <v>45612.66666666666</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R65" t="n">
@@ -4628,7 +4628,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62022606566</t>
+          <t>/v1/utilizations/67221928047</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>62022606566</v>
+        <v>67221928047</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4660,29 +4660,29 @@
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>8834250</v>
+        <v>3349750</v>
       </c>
       <c r="K66" t="n">
-        <v>8834250</v>
+        <v>3349750</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>3498363</v>
+        <v>1326501</v>
       </c>
       <c r="N66" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>45265.66666666666</v>
+        <v>45612.66666666666</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>45265.70833333334</v>
+        <v>45612.70833333334</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R66" t="n">
@@ -4692,7 +4692,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62023326264</t>
+          <t>/v1/utilizations/67222296172</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>62023326264</v>
+        <v>67222296172</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4724,29 +4724,29 @@
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>8822000</v>
+        <v>2936250</v>
       </c>
       <c r="K67" t="n">
-        <v>8822000</v>
+        <v>2936250</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>3493512</v>
+        <v>1162755</v>
       </c>
       <c r="N67" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>45265.70833333334</v>
+        <v>45612.70833333334</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>45265.75</v>
+        <v>45612.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -4756,7 +4756,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62024049382</t>
+          <t>/v1/utilizations/67222666545</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>62024049382</v>
+        <v>67222666545</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4788,29 +4788,29 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>8792750</v>
+        <v>2899250</v>
       </c>
       <c r="K68" t="n">
-        <v>8792750</v>
+        <v>2899250</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>3481929</v>
+        <v>1148103</v>
       </c>
       <c r="N68" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>45265.75</v>
+        <v>45612.75</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>45265.79166666666</v>
+        <v>45612.79166666666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -4820,7 +4820,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62024706188</t>
+          <t>/v1/utilizations/67223038078</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>62024706188</v>
+        <v>67223038078</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4852,29 +4852,29 @@
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>8583500</v>
+        <v>3262000</v>
       </c>
       <c r="K69" t="n">
-        <v>8583500</v>
+        <v>3262000</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>3399066</v>
+        <v>1291752</v>
       </c>
       <c r="N69" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>45265.79166666666</v>
+        <v>45612.79166666666</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>45265.83333333334</v>
+        <v>45612.83333333334</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R69" t="n">
@@ -4884,7 +4884,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62025366234</t>
+          <t>/v1/utilizations/67223411315</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>62025366234</v>
+        <v>67223411315</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4916,29 +4916,29 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>8212500</v>
+        <v>3131000</v>
       </c>
       <c r="K70" t="n">
-        <v>8212500</v>
+        <v>3131000</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>3252150</v>
+        <v>1239876</v>
       </c>
       <c r="N70" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>45265.83333333334</v>
+        <v>45612.83333333334</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>45265.875</v>
+        <v>45612.875</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R70" t="n">
@@ -4948,7 +4948,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62026169704</t>
+          <t>/v1/utilizations/67223786256</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>62026169704</v>
+        <v>67223786256</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4980,29 +4980,29 @@
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>6949000</v>
+        <v>2805000</v>
       </c>
       <c r="K71" t="n">
-        <v>6949000</v>
+        <v>2805000</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2751804</v>
+        <v>1110780</v>
       </c>
       <c r="N71" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>45265.875</v>
+        <v>45612.875</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>45265.91666666666</v>
+        <v>45612.91666666666</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R71" t="n">
@@ -5012,7 +5012,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62026836230</t>
+          <t>/v1/utilizations/67224162901</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>62026836230</v>
+        <v>67224162901</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -5044,29 +5044,29 @@
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>6168250</v>
+        <v>2402250</v>
       </c>
       <c r="K72" t="n">
-        <v>6168250</v>
+        <v>2402250</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2442627</v>
+        <v>951291</v>
       </c>
       <c r="N72" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>45265.91666666666</v>
+        <v>45612.91666666666</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>45265.95833333334</v>
+        <v>45612.95833333334</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R72" t="n">
@@ -5076,7 +5076,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62027646900</t>
+          <t>/v1/utilizations/67224436339</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>62027646900</v>
+        <v>67224436339</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -5108,29 +5108,29 @@
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>5905750</v>
+        <v>1754250</v>
       </c>
       <c r="K73" t="n">
-        <v>5905750</v>
+        <v>1754250</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2338677</v>
+        <v>694683</v>
       </c>
       <c r="N73" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>45265.95833333334</v>
+        <v>45612.95833333334</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>45266</v>
+        <v>45613</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-18T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R73" t="n">
@@ -5140,7 +5140,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62028451450</t>
+          <t>/v1/utilizations/67224831598</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>62028451450</v>
+        <v>67224831598</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -5172,29 +5172,29 @@
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>5923750</v>
+        <v>1517250</v>
       </c>
       <c r="K74" t="n">
-        <v>5923750</v>
+        <v>1517250</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>2345805</v>
+        <v>600831</v>
       </c>
       <c r="N74" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>45266</v>
+        <v>45613</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>45266.04166666666</v>
+        <v>45613.04166666666</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R74" t="n">
@@ -5204,7 +5204,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62029182694</t>
+          <t>/v1/utilizations/67225159269</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>62029182694</v>
+        <v>67225159269</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -5236,29 +5236,29 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>5695250</v>
+        <v>1467250</v>
       </c>
       <c r="K75" t="n">
-        <v>5695250</v>
+        <v>1467250</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>2255319</v>
+        <v>581031</v>
       </c>
       <c r="N75" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>45266.04166666666</v>
+        <v>45613.04166666666</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>45266.08333333334</v>
+        <v>45613.08333333334</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R75" t="n">
@@ -5268,7 +5268,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62029917538</t>
+          <t>/v1/utilizations/67225497373</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>62029917538</v>
+        <v>67225497373</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -5300,29 +5300,29 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>5696000</v>
+        <v>1479500</v>
       </c>
       <c r="K76" t="n">
-        <v>5696000</v>
+        <v>1479500</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>2255616</v>
+        <v>585882</v>
       </c>
       <c r="N76" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>45266.08333333334</v>
+        <v>45613.08333333334</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>45266.125</v>
+        <v>45613.125</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R76" t="n">
@@ -5332,7 +5332,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62030656208</t>
+          <t>/v1/utilizations/67225837261</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>62030656208</v>
+        <v>67225837261</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -5364,29 +5364,29 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>5713750</v>
+        <v>1476250</v>
       </c>
       <c r="K77" t="n">
-        <v>5713750</v>
+        <v>1476250</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2262645</v>
+        <v>584595</v>
       </c>
       <c r="N77" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>45266.125</v>
+        <v>45613.125</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>45266.16666666666</v>
+        <v>45613.16666666666</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R77" t="n">
@@ -5396,7 +5396,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62031398478</t>
+          <t>/v1/utilizations/67226178875</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>62031398478</v>
+        <v>67226178875</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -5428,29 +5428,29 @@
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>6439250</v>
+        <v>1465250</v>
       </c>
       <c r="K78" t="n">
-        <v>6439250</v>
+        <v>1465250</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>2549943</v>
+        <v>580239</v>
       </c>
       <c r="N78" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O78" s="2" t="n">
-        <v>45266.16666666666</v>
+        <v>45613.16666666666</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>45266.20833333334</v>
+        <v>45613.20833333334</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R78" t="n">
@@ -5460,7 +5460,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62032144348</t>
+          <t>/v1/utilizations/67226522215</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>62032144348</v>
+        <v>67226522215</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -5492,29 +5492,29 @@
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>8371750</v>
+        <v>1470000</v>
       </c>
       <c r="K79" t="n">
-        <v>8371750</v>
+        <v>1470000</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>3315213</v>
+        <v>582120</v>
       </c>
       <c r="N79" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>45266.20833333334</v>
+        <v>45613.20833333334</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>45266.25</v>
+        <v>45613.25</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R79" t="n">
@@ -5524,7 +5524,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62032893818</t>
+          <t>/v1/utilizations/67228657857</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>62032893818</v>
+        <v>67228657857</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -5556,29 +5556,29 @@
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>9008750</v>
+        <v>1490750</v>
       </c>
       <c r="K80" t="n">
-        <v>9008750</v>
+        <v>1490750</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>3567465</v>
+        <v>590337</v>
       </c>
       <c r="N80" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O80" s="2" t="n">
-        <v>45266.25</v>
+        <v>45613.25</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>45266.29166666666</v>
+        <v>45613.29166666666</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R80" t="n">
@@ -5588,7 +5588,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62035117883</t>
+          <t>/v1/utilizations/67228657858</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>62035117883</v>
+        <v>67228657858</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -5620,29 +5620,29 @@
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>9229500</v>
+        <v>1705250</v>
       </c>
       <c r="K81" t="n">
-        <v>9229500</v>
+        <v>1705250</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>3654882</v>
+        <v>675279</v>
       </c>
       <c r="N81" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O81" s="2" t="n">
-        <v>45266.29166666666</v>
+        <v>45613.29166666666</v>
       </c>
       <c r="P81" s="2" t="n">
-        <v>45266.33333333334</v>
+        <v>45613.33333333334</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R81" t="n">
@@ -5652,7 +5652,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62036210592</t>
+          <t>/v1/utilizations/67230227481</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>62036210592</v>
+        <v>67230227481</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -5684,29 +5684,29 @@
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>9121500</v>
+        <v>1812000</v>
       </c>
       <c r="K82" t="n">
-        <v>9121500</v>
+        <v>1812000</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>3612114</v>
+        <v>717552</v>
       </c>
       <c r="N82" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>45266.33333333334</v>
+        <v>45613.33333333334</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>45266.375</v>
+        <v>45613.375</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R82" t="n">
@@ -5716,7 +5716,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62036834998</t>
+          <t>/v1/utilizations/67230577659</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>62036834998</v>
+        <v>67230577659</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -5748,29 +5748,29 @@
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>9075250</v>
+        <v>1518250</v>
       </c>
       <c r="K83" t="n">
-        <v>9075250</v>
+        <v>1518250</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>3593799</v>
+        <v>601227</v>
       </c>
       <c r="N83" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O83" s="2" t="n">
-        <v>45266.375</v>
+        <v>45613.375</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>45266.41666666666</v>
+        <v>45613.41666666666</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R83" t="n">
@@ -5780,7 +5780,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62037530756</t>
+          <t>/v1/utilizations/67230932661</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>62037530756</v>
+        <v>67230932661</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5812,29 +5812,29 @@
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>9140750</v>
+        <v>1462500</v>
       </c>
       <c r="K84" t="n">
-        <v>9140750</v>
+        <v>1462500</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>3619737</v>
+        <v>579150</v>
       </c>
       <c r="N84" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O84" s="2" t="n">
-        <v>45266.41666666666</v>
+        <v>45613.41666666666</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>45266.45833333334</v>
+        <v>45613.45833333334</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R84" t="n">
@@ -5844,7 +5844,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62038298226</t>
+          <t>/v1/utilizations/67231289371</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>62038298226</v>
+        <v>67231289371</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -5876,29 +5876,29 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>9071500</v>
+        <v>1452000</v>
       </c>
       <c r="K85" t="n">
-        <v>9071500</v>
+        <v>1452000</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>3592314</v>
+        <v>574992</v>
       </c>
       <c r="N85" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O85" s="2" t="n">
-        <v>45266.45833333334</v>
+        <v>45613.45833333334</v>
       </c>
       <c r="P85" s="2" t="n">
-        <v>45266.5</v>
+        <v>45613.5</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R85" t="n">
@@ -5908,7 +5908,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62039069296</t>
+          <t>/v1/utilizations/67231647789</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>62039069296</v>
+        <v>67231647789</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -5940,29 +5940,29 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>8914500</v>
+        <v>1470750</v>
       </c>
       <c r="K86" t="n">
-        <v>8914500</v>
+        <v>1470750</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>3530142</v>
+        <v>582417</v>
       </c>
       <c r="N86" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O86" s="2" t="n">
-        <v>45266.5</v>
+        <v>45613.5</v>
       </c>
       <c r="P86" s="2" t="n">
-        <v>45266.54166666666</v>
+        <v>45613.54166666666</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R86" t="n">
@@ -5972,7 +5972,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62039843966</t>
+          <t>/v1/utilizations/67231950172</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>62039843966</v>
+        <v>67231950172</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -6004,29 +6004,29 @@
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>9273750</v>
+        <v>1588500</v>
       </c>
       <c r="K87" t="n">
-        <v>9273750</v>
+        <v>1588500</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>3672405</v>
+        <v>629046</v>
       </c>
       <c r="N87" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O87" s="2" t="n">
-        <v>45266.54166666666</v>
+        <v>45613.54166666666</v>
       </c>
       <c r="P87" s="2" t="n">
-        <v>45266.58333333334</v>
+        <v>45613.58333333334</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R87" t="n">
@@ -6036,7 +6036,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62040622236</t>
+          <t>/v1/utilizations/67232323210</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>62040622236</v>
+        <v>67232323210</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -6068,29 +6068,29 @@
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>9172250</v>
+        <v>2067750</v>
       </c>
       <c r="K88" t="n">
-        <v>9172250</v>
+        <v>2067750</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>3632211</v>
+        <v>818829</v>
       </c>
       <c r="N88" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O88" s="2" t="n">
-        <v>45266.58333333334</v>
+        <v>45613.58333333334</v>
       </c>
       <c r="P88" s="2" t="n">
-        <v>45266.625</v>
+        <v>45613.625</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R88" t="n">
@@ -6100,7 +6100,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62041404106</t>
+          <t>/v1/utilizations/67232748274</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6109,7 +6109,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>62041404106</v>
+        <v>67232748274</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -6132,29 +6132,29 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>9195000</v>
+        <v>2600750</v>
       </c>
       <c r="K89" t="n">
-        <v>9195000</v>
+        <v>2600750</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>3641220</v>
+        <v>1029897</v>
       </c>
       <c r="N89" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O89" s="2" t="n">
-        <v>45266.625</v>
+        <v>45613.625</v>
       </c>
       <c r="P89" s="2" t="n">
-        <v>45266.66666666666</v>
+        <v>45613.66666666666</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R89" t="n">
@@ -6164,7 +6164,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62042051192</t>
+          <t>/v1/utilizations/67233117839</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>62042051192</v>
+        <v>67233117839</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -6196,29 +6196,29 @@
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>9160000</v>
+        <v>3596500</v>
       </c>
       <c r="K90" t="n">
-        <v>9160000</v>
+        <v>3596500</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>3627360</v>
+        <v>1424214</v>
       </c>
       <c r="N90" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O90" s="2" t="n">
-        <v>45266.66666666666</v>
+        <v>45613.66666666666</v>
       </c>
       <c r="P90" s="2" t="n">
-        <v>45266.70833333334</v>
+        <v>45613.70833333334</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R90" t="n">
@@ -6228,7 +6228,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62042770890</t>
+          <t>/v1/utilizations/67233489112</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>62042770890</v>
+        <v>67233489112</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -6260,29 +6260,29 @@
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>9232500</v>
+        <v>3815000</v>
       </c>
       <c r="K91" t="n">
-        <v>9232500</v>
+        <v>3815000</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>3656070</v>
+        <v>1510740</v>
       </c>
       <c r="N91" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O91" s="2" t="n">
-        <v>45266.70833333334</v>
+        <v>45613.70833333334</v>
       </c>
       <c r="P91" s="2" t="n">
-        <v>45266.75</v>
+        <v>45613.75</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R91" t="n">
@@ -6292,7 +6292,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62043494008</t>
+          <t>/v1/utilizations/67233862093</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>62043494008</v>
+        <v>67233862093</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -6324,29 +6324,29 @@
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>9382000</v>
+        <v>3866750</v>
       </c>
       <c r="K92" t="n">
-        <v>9382000</v>
+        <v>3866750</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>3715272</v>
+        <v>1531233</v>
       </c>
       <c r="N92" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O92" s="2" t="n">
-        <v>45266.75</v>
+        <v>45613.75</v>
       </c>
       <c r="P92" s="2" t="n">
-        <v>45266.79166666666</v>
+        <v>45613.79166666666</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R92" t="n">
@@ -6356,7 +6356,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62044150814</t>
+          <t>/v1/utilizations/67234236782</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>62044150814</v>
+        <v>67234236782</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -6388,29 +6388,29 @@
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>9229750</v>
+        <v>3142500</v>
       </c>
       <c r="K93" t="n">
-        <v>9229750</v>
+        <v>3142500</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>3654981</v>
+        <v>1244430</v>
       </c>
       <c r="N93" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O93" s="2" t="n">
-        <v>45266.79166666666</v>
+        <v>45613.79166666666</v>
       </c>
       <c r="P93" s="2" t="n">
-        <v>45266.83333333334</v>
+        <v>45613.83333333334</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R93" t="n">
@@ -6420,7 +6420,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62044950684</t>
+          <t>/v1/utilizations/67234561795</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>62044950684</v>
+        <v>67234561795</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -6452,29 +6452,29 @@
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>9170750</v>
+        <v>2903500</v>
       </c>
       <c r="K94" t="n">
-        <v>9170750</v>
+        <v>2903500</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>3631617</v>
+        <v>1149786</v>
       </c>
       <c r="N94" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O94" s="2" t="n">
-        <v>45266.83333333334</v>
+        <v>45613.83333333334</v>
       </c>
       <c r="P94" s="2" t="n">
-        <v>45266.875</v>
+        <v>45613.875</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R94" t="n">
@@ -6484,7 +6484,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62045613970</t>
+          <t>/v1/utilizations/67235000580</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>62045613970</v>
+        <v>67235000580</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -6516,29 +6516,29 @@
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>8821500</v>
+        <v>3066000</v>
       </c>
       <c r="K95" t="n">
-        <v>8821500</v>
+        <v>3066000</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>3493314</v>
+        <v>1214136</v>
       </c>
       <c r="N95" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O95" s="2" t="n">
-        <v>45266.875</v>
+        <v>45613.875</v>
       </c>
       <c r="P95" s="2" t="n">
-        <v>45266.91666666666</v>
+        <v>45613.91666666666</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R95" t="n">
@@ -6548,7 +6548,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62046280496</t>
+          <t>/v1/utilizations/67235380393</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>62046280496</v>
+        <v>67235380393</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -6580,29 +6580,29 @@
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>8671500</v>
+        <v>2877500</v>
       </c>
       <c r="K96" t="n">
-        <v>8671500</v>
+        <v>2877500</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>3433914</v>
+        <v>1139490</v>
       </c>
       <c r="N96" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O96" s="2" t="n">
-        <v>45266.91666666666</v>
+        <v>45613.91666666666</v>
       </c>
       <c r="P96" s="2" t="n">
-        <v>45266.95833333334</v>
+        <v>45613.95833333334</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R96" t="n">
@@ -6612,7 +6612,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62047091166</t>
+          <t>/v1/utilizations/67235761914</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>62047091166</v>
+        <v>67235761914</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -6644,29 +6644,29 @@
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>7401000</v>
+        <v>1938250</v>
       </c>
       <c r="K97" t="n">
-        <v>7401000</v>
+        <v>1938250</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>2930796</v>
+        <v>767547</v>
       </c>
       <c r="N97" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O97" s="2" t="n">
-        <v>45266.95833333334</v>
+        <v>45613.95833333334</v>
       </c>
       <c r="P97" s="2" t="n">
-        <v>45267</v>
+        <v>45614</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-19T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R97" t="n">
@@ -6676,7 +6676,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62047825084</t>
+          <t>/v1/utilizations/67236136581</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>62047825084</v>
+        <v>67236136581</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -6708,29 +6708,29 @@
         <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>6948250</v>
+        <v>1764500</v>
       </c>
       <c r="K98" t="n">
-        <v>6948250</v>
+        <v>1764500</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>2751507</v>
+        <v>698742</v>
       </c>
       <c r="N98" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O98" s="2" t="n">
-        <v>45267</v>
+        <v>45614</v>
       </c>
       <c r="P98" s="2" t="n">
-        <v>45267.04166666666</v>
+        <v>45614.04166666666</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R98" t="n">
@@ -6740,7 +6740,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62048530302</t>
+          <t>/v1/utilizations/67236476038</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>62048530302</v>
+        <v>67236476038</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -6772,29 +6772,29 @@
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>6842500</v>
+        <v>1783000</v>
       </c>
       <c r="K99" t="n">
-        <v>6842500</v>
+        <v>1783000</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>2709630</v>
+        <v>706068</v>
       </c>
       <c r="N99" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O99" s="2" t="n">
-        <v>45267.04166666666</v>
+        <v>45614.04166666666</v>
       </c>
       <c r="P99" s="2" t="n">
-        <v>45267.08333333334</v>
+        <v>45614.08333333334</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R99" t="n">
@@ -6804,7 +6804,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62049069602</t>
+          <t>/v1/utilizations/67236763172</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>62049069602</v>
+        <v>67236763172</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -6836,29 +6836,29 @@
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>6646000</v>
+        <v>1747250</v>
       </c>
       <c r="K100" t="n">
-        <v>6646000</v>
+        <v>1747250</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>2631816</v>
+        <v>691911</v>
       </c>
       <c r="N100" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O100" s="2" t="n">
-        <v>45267.08333333334</v>
+        <v>45614.08333333334</v>
       </c>
       <c r="P100" s="2" t="n">
-        <v>45267.125</v>
+        <v>45614.125</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R100" t="n">
@@ -6868,7 +6868,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62049808272</t>
+          <t>/v1/utilizations/67237160496</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>62049808272</v>
+        <v>67237160496</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -6900,29 +6900,29 @@
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>6609500</v>
+        <v>1836000</v>
       </c>
       <c r="K101" t="n">
-        <v>6609500</v>
+        <v>1836000</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>2617362</v>
+        <v>727056</v>
       </c>
       <c r="N101" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O101" s="2" t="n">
-        <v>45267.125</v>
+        <v>45614.125</v>
       </c>
       <c r="P101" s="2" t="n">
-        <v>45267.16666666666</v>
+        <v>45614.16666666666</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R101" t="n">
@@ -6932,7 +6932,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62050550542</t>
+          <t>/v1/utilizations/67237505206</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>62050550542</v>
+        <v>67237505206</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -6964,29 +6964,29 @@
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>7040500</v>
+        <v>2206500</v>
       </c>
       <c r="K102" t="n">
-        <v>7040500</v>
+        <v>2206500</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>2788038</v>
+        <v>873774</v>
       </c>
       <c r="N102" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O102" s="2" t="n">
-        <v>45267.16666666666</v>
+        <v>45614.16666666666</v>
       </c>
       <c r="P102" s="2" t="n">
-        <v>45267.20833333334</v>
+        <v>45614.20833333334</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R102" t="n">
@@ -6996,7 +6996,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62051296412</t>
+          <t>/v1/utilizations/67237851646</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>62051296412</v>
+        <v>67237851646</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7028,29 +7028,29 @@
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>8050250</v>
+        <v>3448000</v>
       </c>
       <c r="K103" t="n">
-        <v>8050250</v>
+        <v>3448000</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>3187899</v>
+        <v>1365408</v>
       </c>
       <c r="N103" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O103" s="2" t="n">
-        <v>45267.20833333334</v>
+        <v>45614.20833333334</v>
       </c>
       <c r="P103" s="2" t="n">
-        <v>45267.25</v>
+        <v>45614.25</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R103" t="n">
@@ -7060,7 +7060,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62052045882</t>
+          <t>/v1/utilizations/67240118931</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>62052045882</v>
+        <v>67240118931</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -7092,29 +7092,29 @@
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>8671250</v>
+        <v>4965750</v>
       </c>
       <c r="K104" t="n">
-        <v>8671250</v>
+        <v>4965750</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>3433815</v>
+        <v>1966437</v>
       </c>
       <c r="N104" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O104" s="2" t="n">
-        <v>45267.25</v>
+        <v>45614.25</v>
       </c>
       <c r="P104" s="2" t="n">
-        <v>45267.29166666666</v>
+        <v>45614.29166666666</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R104" t="n">
@@ -7124,7 +7124,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62054209296</t>
+          <t>/v1/utilizations/67240118932</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>62054209296</v>
+        <v>67240118932</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7156,29 +7156,29 @@
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>8719500</v>
+        <v>5997750</v>
       </c>
       <c r="K105" t="n">
-        <v>8719500</v>
+        <v>5997750</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>3452922</v>
+        <v>2375109</v>
       </c>
       <c r="N105" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O105" s="2" t="n">
-        <v>45267.29166666666</v>
+        <v>45614.29166666666</v>
       </c>
       <c r="P105" s="2" t="n">
-        <v>45267.33333333334</v>
+        <v>45614.33333333334</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R105" t="n">
@@ -7188,7 +7188,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62056002744</t>
+          <t>/v1/utilizations/67241508292</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>62056002744</v>
+        <v>67241508292</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -7220,29 +7220,29 @@
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>8666750</v>
+        <v>5848000</v>
       </c>
       <c r="K106" t="n">
-        <v>8666750</v>
+        <v>5848000</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>3432033</v>
+        <v>2315808</v>
       </c>
       <c r="N106" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O106" s="2" t="n">
-        <v>45267.33333333334</v>
+        <v>45614.33333333334</v>
       </c>
       <c r="P106" s="2" t="n">
-        <v>45267.375</v>
+        <v>45614.375</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R106" t="n">
@@ -7252,7 +7252,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62056695082</t>
+          <t>/v1/utilizations/67241918042</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7261,7 +7261,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>62056695082</v>
+        <v>67241918042</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -7284,29 +7284,29 @@
         <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>8594500</v>
+        <v>5328000</v>
       </c>
       <c r="K107" t="n">
-        <v>8594500</v>
+        <v>5328000</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>3403422</v>
+        <v>2109888</v>
       </c>
       <c r="N107" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O107" s="2" t="n">
-        <v>45267.375</v>
+        <v>45614.375</v>
       </c>
       <c r="P107" s="2" t="n">
-        <v>45267.41666666666</v>
+        <v>45614.41666666666</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R107" t="n">
@@ -7316,7 +7316,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62057390840</t>
+          <t>/v1/utilizations/67242273044</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62057390840</v>
+        <v>67242273044</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -7348,29 +7348,29 @@
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>7920750</v>
+        <v>4858750</v>
       </c>
       <c r="K108" t="n">
-        <v>7920750</v>
+        <v>4858750</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>3136617</v>
+        <v>1924065</v>
       </c>
       <c r="N108" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O108" s="2" t="n">
-        <v>45267.41666666666</v>
+        <v>45614.41666666666</v>
       </c>
       <c r="P108" s="2" t="n">
-        <v>45267.45833333334</v>
+        <v>45614.45833333334</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R108" t="n">
@@ -7380,7 +7380,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62058224544</t>
+          <t>/v1/utilizations/67242629754</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>62058224544</v>
+        <v>67242629754</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -7412,29 +7412,29 @@
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>7962000</v>
+        <v>5069500</v>
       </c>
       <c r="K109" t="n">
-        <v>7962000</v>
+        <v>5069500</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>3152952</v>
+        <v>2007522</v>
       </c>
       <c r="N109" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O109" s="2" t="n">
-        <v>45267.45833333334</v>
+        <v>45614.45833333334</v>
       </c>
       <c r="P109" s="2" t="n">
-        <v>45267.5</v>
+        <v>45614.5</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R109" t="n">
@@ -7444,7 +7444,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62059093267</t>
+          <t>/v1/utilizations/67242988172</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>62059093267</v>
+        <v>67242988172</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -7476,29 +7476,29 @@
         <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>8187500</v>
+        <v>5136250</v>
       </c>
       <c r="K110" t="n">
-        <v>8187500</v>
+        <v>5136250</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>3242250</v>
+        <v>2033955</v>
       </c>
       <c r="N110" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O110" s="2" t="n">
-        <v>45267.5</v>
+        <v>45614.5</v>
       </c>
       <c r="P110" s="2" t="n">
-        <v>45267.54166666666</v>
+        <v>45614.54166666666</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R110" t="n">
@@ -7508,7 +7508,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62060066825</t>
+          <t>/v1/utilizations/67243349386</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>62060066825</v>
+        <v>67243349386</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -7540,29 +7540,29 @@
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>8225750</v>
+        <v>5706500</v>
       </c>
       <c r="K111" t="n">
-        <v>8225750</v>
+        <v>5706500</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>3257397</v>
+        <v>2259774</v>
       </c>
       <c r="N111" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O111" s="2" t="n">
-        <v>45267.54166666666</v>
+        <v>45614.54166666666</v>
       </c>
       <c r="P111" s="2" t="n">
-        <v>45267.58333333334</v>
+        <v>45614.58333333334</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R111" t="n">
@@ -7572,7 +7572,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62061043963</t>
+          <t>/v1/utilizations/67243713582</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7581,7 +7581,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>62061043963</v>
+        <v>67243713582</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -7604,29 +7604,29 @@
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>8235750</v>
+        <v>6265750</v>
       </c>
       <c r="K112" t="n">
-        <v>8235750</v>
+        <v>6265750</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>3261357</v>
+        <v>2481237</v>
       </c>
       <c r="N112" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O112" s="2" t="n">
-        <v>45267.58333333334</v>
+        <v>45614.58333333334</v>
       </c>
       <c r="P112" s="2" t="n">
-        <v>45267.625</v>
+        <v>45614.625</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R112" t="n">
@@ -7636,7 +7636,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62061873855</t>
+          <t>/v1/utilizations/67244071374</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>62061873855</v>
+        <v>67244071374</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -7668,29 +7668,29 @@
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>8212250</v>
+        <v>7083250</v>
       </c>
       <c r="K113" t="n">
-        <v>8212250</v>
+        <v>7083250</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>3252051</v>
+        <v>2804967</v>
       </c>
       <c r="N113" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O113" s="2" t="n">
-        <v>45267.625</v>
+        <v>45614.625</v>
       </c>
       <c r="P113" s="2" t="n">
-        <v>45267.66666666666</v>
+        <v>45614.66666666666</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R113" t="n">
@@ -7700,7 +7700,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62062858153</t>
+          <t>/v1/utilizations/67244439578</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>62062858153</v>
+        <v>67244439578</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -7732,29 +7732,29 @@
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>8087250</v>
+        <v>7301500</v>
       </c>
       <c r="K114" t="n">
-        <v>8087250</v>
+        <v>7301500</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>3202551</v>
+        <v>2891394</v>
       </c>
       <c r="N114" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O114" s="2" t="n">
-        <v>45267.66666666666</v>
+        <v>45614.66666666666</v>
       </c>
       <c r="P114" s="2" t="n">
-        <v>45267.70833333334</v>
+        <v>45614.70833333334</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R114" t="n">
@@ -7764,7 +7764,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62063743851</t>
+          <t>/v1/utilizations/67244810851</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>62063743851</v>
+        <v>67244810851</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -7796,29 +7796,29 @@
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>8083000</v>
+        <v>7663500</v>
       </c>
       <c r="K115" t="n">
-        <v>8083000</v>
+        <v>7663500</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>3200868</v>
+        <v>3034746</v>
       </c>
       <c r="N115" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O115" s="2" t="n">
-        <v>45267.70833333334</v>
+        <v>45614.70833333334</v>
       </c>
       <c r="P115" s="2" t="n">
-        <v>45267.75</v>
+        <v>45614.75</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R115" t="n">
@@ -7828,7 +7828,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62064735309</t>
+          <t>/v1/utilizations/67245184099</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>62064735309</v>
+        <v>67245184099</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -7860,29 +7860,29 @@
         <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>7897500</v>
+        <v>7923500</v>
       </c>
       <c r="K116" t="n">
-        <v>7897500</v>
+        <v>7923500</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>3127410</v>
+        <v>3137706</v>
       </c>
       <c r="N116" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O116" s="2" t="n">
-        <v>45267.75</v>
+        <v>45614.75</v>
       </c>
       <c r="P116" s="2" t="n">
-        <v>45267.79166666666</v>
+        <v>45614.79166666666</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R116" t="n">
@@ -7892,7 +7892,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62065627797</t>
+          <t>/v1/utilizations/67245558788</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>62065627797</v>
+        <v>67245558788</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -7924,29 +7924,29 @@
         <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>7565500</v>
+        <v>7942500</v>
       </c>
       <c r="K117" t="n">
-        <v>7565500</v>
+        <v>7942500</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>2995938</v>
+        <v>3145230</v>
       </c>
       <c r="N117" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O117" s="2" t="n">
-        <v>45267.79166666666</v>
+        <v>45614.79166666666</v>
       </c>
       <c r="P117" s="2" t="n">
-        <v>45267.83333333334</v>
+        <v>45614.83333333334</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R117" t="n">
@@ -7956,7 +7956,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62066626415</t>
+          <t>/v1/utilizations/67245935729</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>62066626415</v>
+        <v>67245935729</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7988,29 +7988,29 @@
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>5097500</v>
+        <v>7765000</v>
       </c>
       <c r="K118" t="n">
-        <v>5097500</v>
+        <v>7765000</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>2018610</v>
+        <v>3074940</v>
       </c>
       <c r="N118" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O118" s="2" t="n">
-        <v>45267.83333333334</v>
+        <v>45614.83333333334</v>
       </c>
       <c r="P118" s="2" t="n">
-        <v>45267.875</v>
+        <v>45614.875</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R118" t="n">
@@ -8020,7 +8020,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62067628613</t>
+          <t>/v1/utilizations/67246313834</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>62067628613</v>
+        <v>67246313834</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -8052,29 +8052,29 @@
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3912000</v>
+        <v>6548750</v>
       </c>
       <c r="K119" t="n">
-        <v>3912000</v>
+        <v>6548750</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1549152</v>
+        <v>2593305</v>
       </c>
       <c r="N119" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O119" s="2" t="n">
-        <v>45267.875</v>
+        <v>45614.875</v>
       </c>
       <c r="P119" s="2" t="n">
-        <v>45267.91666666666</v>
+        <v>45614.91666666666</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R119" t="n">
@@ -8084,7 +8084,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62068531286</t>
+          <t>/v1/utilizations/67246633160</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>62068531286</v>
+        <v>67246633160</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -8116,29 +8116,29 @@
         <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3019000</v>
+        <v>4882750</v>
       </c>
       <c r="K120" t="n">
-        <v>3019000</v>
+        <v>4882750</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1195524</v>
+        <v>1933569</v>
       </c>
       <c r="N120" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O120" s="2" t="n">
-        <v>45267.91666666666</v>
+        <v>45614.91666666666</v>
       </c>
       <c r="P120" s="2" t="n">
-        <v>45267.95833333334</v>
+        <v>45614.95833333334</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R120" t="n">
@@ -8148,7 +8148,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62069540644</t>
+          <t>/v1/utilizations/67247032247</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>62069540644</v>
+        <v>67247032247</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -8180,29 +8180,29 @@
         <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>1824000</v>
+        <v>3267000</v>
       </c>
       <c r="K121" t="n">
-        <v>1824000</v>
+        <v>3267000</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>722304</v>
+        <v>1293732</v>
       </c>
       <c r="N121" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O121" s="2" t="n">
-        <v>45267.95833333334</v>
+        <v>45614.95833333334</v>
       </c>
       <c r="P121" s="2" t="n">
-        <v>45268</v>
+        <v>45615</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-20T23:17:05+00:00</t>
         </is>
       </c>
       <c r="R121" t="n">
@@ -8212,7 +8212,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62070543862</t>
+          <t>/v1/utilizations/67247363283</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>62070543862</v>
+        <v>67247363283</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -8244,29 +8244,29 @@
         <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>1635500</v>
+        <v>2348250</v>
       </c>
       <c r="K122" t="n">
-        <v>1635500</v>
+        <v>2348250</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>647658</v>
+        <v>929907</v>
       </c>
       <c r="N122" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O122" s="2" t="n">
-        <v>45268</v>
+        <v>45615</v>
       </c>
       <c r="P122" s="2" t="n">
-        <v>45268.04166666666</v>
+        <v>45615.04166666666</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R122" t="n">
@@ -8276,7 +8276,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62071474168</t>
+          <t>/v1/utilizations/67247657721</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>62071474168</v>
+        <v>67247657721</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -8308,29 +8308,29 @@
         <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>1677750</v>
+        <v>2206500</v>
       </c>
       <c r="K123" t="n">
-        <v>1677750</v>
+        <v>2206500</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>664389</v>
+        <v>873774</v>
       </c>
       <c r="N123" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O123" s="2" t="n">
-        <v>45268.04166666666</v>
+        <v>45615.04166666666</v>
       </c>
       <c r="P123" s="2" t="n">
-        <v>45268.08333333334</v>
+        <v>45615.08333333334</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R123" t="n">
@@ -8340,7 +8340,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62072408054</t>
+          <t>/v1/utilizations/67247998847</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>62072408054</v>
+        <v>67247998847</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -8372,29 +8372,29 @@
         <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1611500</v>
+        <v>2073500</v>
       </c>
       <c r="K124" t="n">
-        <v>1611500</v>
+        <v>2073500</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>638154</v>
+        <v>821106</v>
       </c>
       <c r="N124" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O124" s="2" t="n">
-        <v>45268.08333333334</v>
+        <v>45615.08333333334</v>
       </c>
       <c r="P124" s="2" t="n">
-        <v>45268.125</v>
+        <v>45615.125</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R124" t="n">
@@ -8404,7 +8404,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62073345812</t>
+          <t>/v1/utilizations/67248396171</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>62073345812</v>
+        <v>67248396171</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -8436,29 +8436,29 @@
         <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1612750</v>
+        <v>1958500</v>
       </c>
       <c r="K125" t="n">
-        <v>1612750</v>
+        <v>1958500</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>638649</v>
+        <v>775566</v>
       </c>
       <c r="N125" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O125" s="2" t="n">
-        <v>45268.125</v>
+        <v>45615.125</v>
       </c>
       <c r="P125" s="2" t="n">
-        <v>45268.16666666666</v>
+        <v>45615.16666666666</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R125" t="n">
@@ -8468,7 +8468,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62074287150</t>
+          <t>/v1/utilizations/67248740881</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>62074287150</v>
+        <v>67248740881</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -8500,29 +8500,29 @@
         <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2052000</v>
+        <v>2175750</v>
       </c>
       <c r="K126" t="n">
-        <v>2052000</v>
+        <v>2175750</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>812592</v>
+        <v>861597</v>
       </c>
       <c r="N126" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O126" s="2" t="n">
-        <v>45268.16666666666</v>
+        <v>45615.16666666666</v>
       </c>
       <c r="P126" s="2" t="n">
-        <v>45268.20833333334</v>
+        <v>45615.20833333334</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R126" t="n">
@@ -8532,7 +8532,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62075232068</t>
+          <t>/v1/utilizations/67249087321</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>62075232068</v>
+        <v>67249087321</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -8564,29 +8564,29 @@
         <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>3961000</v>
+        <v>3677000</v>
       </c>
       <c r="K127" t="n">
-        <v>3961000</v>
+        <v>3677000</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>1568556</v>
+        <v>1456092</v>
       </c>
       <c r="N127" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O127" s="2" t="n">
-        <v>45268.20833333334</v>
+        <v>45615.20833333334</v>
       </c>
       <c r="P127" s="2" t="n">
-        <v>45268.25</v>
+        <v>45615.25</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R127" t="n">
@@ -8596,7 +8596,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62076180566</t>
+          <t>/v1/utilizations/67251354867</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>62076180566</v>
+        <v>67251354867</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -8628,29 +8628,29 @@
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>6883750</v>
+        <v>5907000</v>
       </c>
       <c r="K128" t="n">
-        <v>6883750</v>
+        <v>5907000</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>2725965</v>
+        <v>2339172</v>
       </c>
       <c r="N128" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O128" s="2" t="n">
-        <v>45268.25</v>
+        <v>45615.25</v>
       </c>
       <c r="P128" s="2" t="n">
-        <v>45268.29166666666</v>
+        <v>45615.29166666666</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R128" t="n">
@@ -8660,7 +8660,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62078685937</t>
+          <t>/v1/utilizations/67251354868</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>62078685937</v>
+        <v>67251354868</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -8692,29 +8692,29 @@
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>7888750</v>
+        <v>6862750</v>
       </c>
       <c r="K129" t="n">
-        <v>7888750</v>
+        <v>6862750</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>3123945</v>
+        <v>2717649</v>
       </c>
       <c r="N129" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O129" s="2" t="n">
-        <v>45268.29166666666</v>
+        <v>45615.29166666666</v>
       </c>
       <c r="P129" s="2" t="n">
-        <v>45268.33333333334</v>
+        <v>45615.33333333334</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R129" t="n">
@@ -8724,7 +8724,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62080467852</t>
+          <t>/v1/utilizations/67252829971</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>62080467852</v>
+        <v>67252829971</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -8756,29 +8756,29 @@
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>7960750</v>
+        <v>7723000</v>
       </c>
       <c r="K130" t="n">
-        <v>7960750</v>
+        <v>7723000</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>3152457</v>
+        <v>3058308</v>
       </c>
       <c r="N130" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O130" s="2" t="n">
-        <v>45268.33333333334</v>
+        <v>45615.33333333334</v>
       </c>
       <c r="P130" s="2" t="n">
-        <v>45268.375</v>
+        <v>45615.375</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R130" t="n">
@@ -8788,7 +8788,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62081326390</t>
+          <t>/v1/utilizations/67253126861</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>62081326390</v>
+        <v>67253126861</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -8820,29 +8820,29 @@
         <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>7963250</v>
+        <v>7975000</v>
       </c>
       <c r="K131" t="n">
-        <v>7963250</v>
+        <v>7975000</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>3153447</v>
+        <v>3158100</v>
       </c>
       <c r="N131" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O131" s="2" t="n">
-        <v>45268.375</v>
+        <v>45615.375</v>
       </c>
       <c r="P131" s="2" t="n">
-        <v>45268.41666666666</v>
+        <v>45615.41666666666</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R131" t="n">
@@ -8852,7 +8852,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62082289208</t>
+          <t>/v1/utilizations/67253538671</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>62082289208</v>
+        <v>67253538671</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -8884,29 +8884,29 @@
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>8003750</v>
+        <v>7943750</v>
       </c>
       <c r="K132" t="n">
-        <v>8003750</v>
+        <v>7943750</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>3169485</v>
+        <v>3145725</v>
       </c>
       <c r="N132" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O132" s="2" t="n">
-        <v>45268.41666666666</v>
+        <v>45615.41666666666</v>
       </c>
       <c r="P132" s="2" t="n">
-        <v>45268.45833333334</v>
+        <v>45615.45833333334</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R132" t="n">
@@ -8916,7 +8916,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62083255606</t>
+          <t>/v1/utilizations/67253895381</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>62083255606</v>
+        <v>67253895381</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -8948,29 +8948,29 @@
         <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>7953500</v>
+        <v>8130500</v>
       </c>
       <c r="K133" t="n">
-        <v>7953500</v>
+        <v>8130500</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>3149586</v>
+        <v>3219678</v>
       </c>
       <c r="N133" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O133" s="2" t="n">
-        <v>45268.45833333334</v>
+        <v>45615.45833333334</v>
       </c>
       <c r="P133" s="2" t="n">
-        <v>45268.5</v>
+        <v>45615.5</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R133" t="n">
@@ -8980,7 +8980,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62084124329</t>
+          <t>/v1/utilizations/67254253799</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>62084124329</v>
+        <v>67254253799</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -9012,29 +9012,29 @@
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>7766500</v>
+        <v>8195000</v>
       </c>
       <c r="K134" t="n">
-        <v>7766500</v>
+        <v>8195000</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>3075534</v>
+        <v>3245220</v>
       </c>
       <c r="N134" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O134" s="2" t="n">
-        <v>45268.5</v>
+        <v>45615.5</v>
       </c>
       <c r="P134" s="2" t="n">
-        <v>45268.54166666666</v>
+        <v>45615.54166666666</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R134" t="n">
@@ -9044,7 +9044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62085097887</t>
+          <t>/v1/utilizations/67254613925</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9053,7 +9053,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>62085097887</v>
+        <v>67254613925</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -9076,29 +9076,29 @@
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>7725000</v>
+        <v>8137250</v>
       </c>
       <c r="K135" t="n">
-        <v>7725000</v>
+        <v>8137250</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>3059100</v>
+        <v>3222351</v>
       </c>
       <c r="N135" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O135" s="2" t="n">
-        <v>45268.54166666666</v>
+        <v>45615.54166666666</v>
       </c>
       <c r="P135" s="2" t="n">
-        <v>45268.58333333334</v>
+        <v>45615.58333333334</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R135" t="n">
@@ -9108,7 +9108,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62086075025</t>
+          <t>/v1/utilizations/67254978121</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>62086075025</v>
+        <v>67254978121</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -9140,29 +9140,29 @@
         <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>7624000</v>
+        <v>7819750</v>
       </c>
       <c r="K136" t="n">
-        <v>7624000</v>
+        <v>7819750</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>3019104</v>
+        <v>3096621</v>
       </c>
       <c r="N136" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O136" s="2" t="n">
-        <v>45268.58333333334</v>
+        <v>45615.58333333334</v>
       </c>
       <c r="P136" s="2" t="n">
-        <v>45268.625</v>
+        <v>45615.625</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R136" t="n">
@@ -9172,7 +9172,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62087055743</t>
+          <t>/v1/utilizations/67255344615</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9181,7 +9181,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>62087055743</v>
+        <v>67255344615</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -9204,29 +9204,29 @@
         <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>7698500</v>
+        <v>7941500</v>
       </c>
       <c r="K137" t="n">
-        <v>7698500</v>
+        <v>7941500</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>3048606</v>
+        <v>3144834</v>
       </c>
       <c r="N137" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O137" s="2" t="n">
-        <v>45268.625</v>
+        <v>45615.625</v>
       </c>
       <c r="P137" s="2" t="n">
-        <v>45268.66666666666</v>
+        <v>45615.66666666666</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R137" t="n">
@@ -9236,7 +9236,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62088040041</t>
+          <t>/v1/utilizations/67255655432</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9245,7 +9245,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>62088040041</v>
+        <v>67255655432</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -9268,29 +9268,29 @@
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>7750000</v>
+        <v>7929750</v>
       </c>
       <c r="K138" t="n">
-        <v>7750000</v>
+        <v>7929750</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>3069000</v>
+        <v>3140181</v>
       </c>
       <c r="N138" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O138" s="2" t="n">
-        <v>45268.66666666666</v>
+        <v>45615.66666666666</v>
       </c>
       <c r="P138" s="2" t="n">
-        <v>45268.70833333334</v>
+        <v>45615.70833333334</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R138" t="n">
@@ -9300,7 +9300,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62088823559</t>
+          <t>/v1/utilizations/67256085977</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>62088823559</v>
+        <v>67256085977</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -9332,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>7521750</v>
+        <v>8228000</v>
       </c>
       <c r="K139" t="n">
-        <v>7521750</v>
+        <v>8228000</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>2978613</v>
+        <v>3258288</v>
       </c>
       <c r="N139" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O139" s="2" t="n">
-        <v>45268.70833333334</v>
+        <v>45615.70833333334</v>
       </c>
       <c r="P139" s="2" t="n">
-        <v>45268.75</v>
+        <v>45615.75</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R139" t="n">
@@ -9364,7 +9364,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62089610287</t>
+          <t>/v1/utilizations/67256458958</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>62089610287</v>
+        <v>67256458958</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -9396,29 +9396,29 @@
         <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>7316000</v>
+        <v>8325500</v>
       </c>
       <c r="K140" t="n">
-        <v>7316000</v>
+        <v>8325500</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>2897136</v>
+        <v>3296898</v>
       </c>
       <c r="N140" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O140" s="2" t="n">
-        <v>45268.75</v>
+        <v>45615.75</v>
       </c>
       <c r="P140" s="2" t="n">
-        <v>45268.79166666666</v>
+        <v>45615.79166666666</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -9428,7 +9428,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62090502775</t>
+          <t>/v1/utilizations/67256833647</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9437,7 +9437,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>62090502775</v>
+        <v>67256833647</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -9460,29 +9460,29 @@
         <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>5947750</v>
+        <v>7128000</v>
       </c>
       <c r="K141" t="n">
-        <v>5947750</v>
+        <v>7128000</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>2355309</v>
+        <v>2822688</v>
       </c>
       <c r="N141" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O141" s="2" t="n">
-        <v>45268.79166666666</v>
+        <v>45615.79166666666</v>
       </c>
       <c r="P141" s="2" t="n">
-        <v>45268.83333333334</v>
+        <v>45615.83333333334</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R141" t="n">
@@ -9492,7 +9492,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62091501393</t>
+          <t>/v1/utilizations/67257210044</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>62091501393</v>
+        <v>67257210044</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -9524,29 +9524,29 @@
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>3638250</v>
+        <v>6011250</v>
       </c>
       <c r="K142" t="n">
-        <v>3638250</v>
+        <v>6011250</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>1440747</v>
+        <v>2380455</v>
       </c>
       <c r="N142" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O142" s="2" t="n">
-        <v>45268.83333333334</v>
+        <v>45615.83333333334</v>
       </c>
       <c r="P142" s="2" t="n">
-        <v>45268.875</v>
+        <v>45615.875</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -9556,7 +9556,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62092503591</t>
+          <t>/v1/utilizations/67257588149</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>62092503591</v>
+        <v>67257588149</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -9588,29 +9588,29 @@
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2608000</v>
+        <v>5039500</v>
       </c>
       <c r="K143" t="n">
-        <v>2608000</v>
+        <v>5039500</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>1032768</v>
+        <v>1995642</v>
       </c>
       <c r="N143" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O143" s="2" t="n">
-        <v>45268.875</v>
+        <v>45615.875</v>
       </c>
       <c r="P143" s="2" t="n">
-        <v>45268.91666666666</v>
+        <v>45615.91666666666</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R143" t="n">
@@ -9620,7 +9620,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62093509369</t>
+          <t>/v1/utilizations/67257967962</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>62093509369</v>
+        <v>67257967962</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -9652,29 +9652,29 @@
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2136250</v>
+        <v>3254500</v>
       </c>
       <c r="K144" t="n">
-        <v>2136250</v>
+        <v>3254500</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>845955</v>
+        <v>1288782</v>
       </c>
       <c r="N144" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O144" s="2" t="n">
-        <v>45268.91666666666</v>
+        <v>45615.91666666666</v>
       </c>
       <c r="P144" s="2" t="n">
-        <v>45268.95833333334</v>
+        <v>45615.95833333334</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R144" t="n">
@@ -9684,7 +9684,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62094518727</t>
+          <t>/v1/utilizations/67258349483</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>62094518727</v>
+        <v>67258349483</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -9716,29 +9716,29 @@
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>1553750</v>
+        <v>2323500</v>
       </c>
       <c r="K145" t="n">
-        <v>1553750</v>
+        <v>2323500</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>615285</v>
+        <v>920106</v>
       </c>
       <c r="N145" t="n">
         <v>0.3959999978542328</v>
       </c>
       <c r="O145" s="2" t="n">
-        <v>45268.95833333334</v>
+        <v>45615.95833333334</v>
       </c>
       <c r="P145" s="2" t="n">
-        <v>45269</v>
+        <v>45616</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>2024-01-24T07:13:36+00:00</t>
+          <t>2024-11-21T23:17:06+00:00</t>
         </is>
       </c>
       <c r="R145" t="n">
